--- a/課題8/課題8-ER図暫定.xlsx
+++ b/課題8/課題8-ER図暫定.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\GitHub\sql_kadai\課題8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\応用演習\第9回\sql_kadai\課題8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,57 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
-  <si>
-    <t>営業本部</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホンブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部名</t>
-    <rPh sb="0" eb="1">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>組織コード</t>
     <rPh sb="0" eb="2">
-      <t>ソシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>営業課</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課名</t>
-    <rPh sb="0" eb="2">
-      <t>カメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課組織コード</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
       <t>ソシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -97,16 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>部組織コード(FK)</t>
-    <rPh sb="0" eb="1">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ソシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>職種</t>
     <rPh sb="0" eb="2">
       <t>ショクシュ</t>
@@ -160,10 +103,6 @@
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スポーツ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -556,6 +495,41 @@
     <rPh sb="2" eb="4">
       <t>モクヒョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注ID(FK)</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上位部署コード</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツタイプ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -563,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +550,22 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -705,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +724,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,305 +1035,304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="9"/>
       <c r="G4" s="8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H4" s="9"/>
       <c r="J4" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="G6" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G9" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C15" s="9"/>
       <c r="E15" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F15" s="9"/>
       <c r="H15" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9"/>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3"/>
       <c r="H16" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E17" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F17" s="5"/>
       <c r="H17" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E18" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F18" s="5"/>
       <c r="H18" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E19" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E20" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>39</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="11"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="E24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="9"/>
+      <c r="E24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="13"/>
       <c r="H24" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" s="9"/>
       <c r="K24" s="8" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="E25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="E25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="15"/>
       <c r="H25" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I25" s="3"/>
       <c r="K25" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="E26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="5"/>
+      <c r="E26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="17"/>
       <c r="H26" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I26" s="5"/>
       <c r="K26" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="E27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="7"/>
+      <c r="E27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="15"/>
       <c r="H27" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I27" s="5"/>
       <c r="K27" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C28" s="7"/>
       <c r="H28" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I28" s="5"/>
       <c r="K28" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H29" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I29" s="5"/>
       <c r="K29" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H30" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I30" s="5"/>
       <c r="K30" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H31" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I31" s="5"/>
       <c r="K31" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H32" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I32" s="7"/>
       <c r="K32" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L32" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/課題8/課題8-ER図暫定.xlsx
+++ b/課題8/課題8-ER図暫定.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\応用演習\第9回\sql_kadai\課題8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\GitHub\sql_kadai\課題8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+  <si>
+    <t>営業本部</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部名</t>
+    <rPh sb="0" eb="1">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>組織コード</t>
     <rPh sb="0" eb="2">
+      <t>ソシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業課</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課名</t>
+    <rPh sb="0" eb="2">
+      <t>カメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課組織コード</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
       <t>ソシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -50,6 +97,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>部組織コード(FK)</t>
+    <rPh sb="0" eb="1">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ソシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>職種</t>
     <rPh sb="0" eb="2">
       <t>ショクシュ</t>
@@ -103,6 +160,10 @@
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -495,41 +556,6 @@
     <rPh sb="2" eb="4">
       <t>モクヒョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受注ID(FK)</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上位部署コード</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部署</t>
-    <rPh sb="0" eb="2">
-      <t>ブショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スポーツタイプ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -537,7 +563,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,22 +576,6 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -695,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,33 +734,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,304 +1018,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="G4" s="8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H4" s="9"/>
       <c r="J4" s="8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="G5" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="G6" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G7" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G8" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G9" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C15" s="9"/>
       <c r="E15" s="8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F15" s="9"/>
       <c r="H15" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9"/>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F16" s="3"/>
       <c r="H16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E17" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F17" s="5"/>
       <c r="H17" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E18" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F18" s="5"/>
       <c r="H18" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E19" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E20" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F20" s="7"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="E24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="13"/>
+      <c r="E24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="9"/>
       <c r="H24" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" s="9"/>
       <c r="K24" s="8" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="E25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="15"/>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="H25" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I25" s="3"/>
       <c r="K25" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="E26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="17"/>
+      <c r="E26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="5"/>
       <c r="H26" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I26" s="5"/>
       <c r="K26" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="E27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="15"/>
+      <c r="E27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="7"/>
       <c r="H27" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I27" s="5"/>
       <c r="K27" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7"/>
       <c r="H28" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I28" s="5"/>
       <c r="K28" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H29" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I29" s="5"/>
       <c r="K29" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H30" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I30" s="5"/>
       <c r="K30" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H31" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I31" s="5"/>
       <c r="K31" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H32" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I32" s="7"/>
       <c r="K32" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L32" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>